--- a/요구사항정의서.xlsx
+++ b/요구사항정의서.xlsx
@@ -15,7 +15,7 @@
     <sheet name="요구사항정의서" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$1:$I$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$1:$I$47</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="140">
   <si>
     <t>유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카테고리에 마우스를 올릴시 소분류 카테고리가 나와야 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소분류 카테고리 클릭 시 순위 표가 나와야 함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -579,6 +575,33 @@
   </si>
   <si>
     <t>시나리오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monthly / Weekly Ranking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 주간 순위표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이드 형식 이여어 하며,
+클릭 시 해당 항목의 페이지로 이동 하여야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 초기 화면에서 주간 월간 현재 인기 있는 랭킹의 순위를 확인 할수 있고,
+해당 자료를 확인 할수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리에 마우스를 올릴시 소분류 카테고리가 나와야 하고,
+순위표에 카테고리로 선정한 순위가 나와야 함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -951,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -962,7 +985,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="67.375" style="1" bestFit="1" customWidth="1"/>
@@ -972,13 +995,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -993,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1007,7 +1030,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -1016,13 +1039,13 @@
         <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -1034,7 +1057,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
@@ -1043,13 +1066,13 @@
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>17</v>
@@ -1063,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
@@ -1072,13 +1095,13 @@
         <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I4" s="3"/>
     </row>
@@ -1090,7 +1113,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
@@ -1099,13 +1122,13 @@
         <v>5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -1117,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
@@ -1126,13 +1149,13 @@
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -1144,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>20</v>
@@ -1153,13 +1176,13 @@
         <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I7" s="3"/>
     </row>
@@ -1171,7 +1194,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>21</v>
@@ -1180,13 +1203,13 @@
         <v>18</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I8" s="3"/>
     </row>
@@ -1198,49 +1221,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>114</v>
+        <v>136</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="I10" s="3"/>
     </row>
@@ -1249,13 +1272,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
@@ -1264,10 +1287,10 @@
         <v>38</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I11" s="3"/>
     </row>
@@ -1276,25 +1299,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -1303,25 +1326,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>47</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I13" s="3"/>
     </row>
@@ -1330,25 +1353,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I14" s="3"/>
     </row>
@@ -1357,25 +1380,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I15" s="3"/>
     </row>
@@ -1384,25 +1407,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I16" s="3"/>
     </row>
@@ -1411,25 +1434,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I17" s="3"/>
     </row>
@@ -1438,25 +1461,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I18" s="3"/>
     </row>
@@ -1465,25 +1488,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I19" s="3"/>
     </row>
@@ -1492,52 +1515,52 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>13</v>
+        <v>59</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="I21" s="3"/>
     </row>
@@ -1546,108 +1569,108 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I25" s="3"/>
     </row>
@@ -1656,52 +1679,52 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I27" s="3"/>
     </row>
@@ -1710,79 +1733,79 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>13</v>
+        <v>79</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="I30" s="3"/>
     </row>
@@ -1791,189 +1814,189 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>129</v>
+        <v>33</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>130</v>
+        <v>85</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="F37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="H37" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I37" s="3"/>
     </row>
@@ -1982,25 +2005,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="I38" s="3"/>
     </row>
@@ -2012,28 +2035,26 @@
         <v>9</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2041,26 +2062,28 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2068,26 +2091,26 @@
         <v>9</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2095,26 +2118,26 @@
         <v>9</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2122,26 +2145,26 @@
         <v>9</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>132</v>
+        <v>16</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2149,29 +2172,54 @@
         <v>9</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="F44" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I44" s="3"/>
+      <c r="H45" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I45" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I44">
-    <filterColumn colId="0" showButton="0"/>
-  </autoFilter>
+  <autoFilter ref="A1:I47"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/요구사항정의서.xlsx
+++ b/요구사항정의서.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\human\팀 프로젝트\팀관련\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjm23\OneDrive\바탕 화면\팀프로젝트 WTP\meeting-log\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0BAB73-07CB-4C99-9B0A-2369A4B1D3E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14085"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="2" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="141">
   <si>
     <t>유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -602,13 +603,17 @@
   <si>
     <t>카테고리에 마우스를 올릴시 소분류 카테고리가 나와야 하고,
 순위표에 카테고리로 선정한 순위가 나와야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -973,27 +978,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="72.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="72.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.09765625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
@@ -1022,7 +1027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1049,7 +1054,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1078,7 +1083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1105,7 +1110,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1128,11 +1133,11 @@
         <v>19</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1159,7 +1164,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1186,7 +1191,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1200,7 +1205,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>35</v>
@@ -1213,7 +1218,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1240,7 +1245,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1267,7 +1272,7 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1294,7 +1299,7 @@
       </c>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1321,7 +1326,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1348,7 +1353,7 @@
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1375,7 +1380,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1402,7 +1407,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1429,7 +1434,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1456,7 +1461,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1483,7 +1488,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1510,7 +1515,7 @@
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1537,7 +1542,7 @@
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1564,7 +1569,7 @@
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1591,7 +1596,7 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1620,7 +1625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1647,7 +1652,7 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1674,7 +1679,7 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1701,7 +1706,7 @@
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1728,7 +1733,7 @@
       </c>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1755,7 +1760,7 @@
       </c>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1782,7 +1787,7 @@
       </c>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1809,7 +1814,7 @@
       </c>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1836,7 +1841,7 @@
       </c>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1865,7 +1870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1892,7 +1897,7 @@
       </c>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1919,7 +1924,7 @@
       </c>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1946,7 +1951,7 @@
       </c>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1973,7 +1978,7 @@
       </c>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2000,7 +2005,7 @@
       </c>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2027,7 +2032,7 @@
       </c>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2054,7 +2059,7 @@
       </c>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2083,7 +2088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2110,7 +2115,7 @@
       </c>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2137,7 +2142,7 @@
       </c>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2164,7 +2169,7 @@
       </c>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2191,7 +2196,7 @@
       </c>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2219,7 +2224,7 @@
       <c r="I45" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I47"/>
+  <autoFilter ref="A1:I47" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
